--- a/datasets/dataset.xlsx
+++ b/datasets/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_hanh_met_moi\KLTN\demo\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD743E-E793-4B24-9239-9478C5583DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C3B33-AAF4-4850-BC9E-BF32B3FBE9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9550" yWindow="150" windowWidth="9810" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Precedence graph</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>Warnecke</t>
   </si>
 </sst>
 </file>
@@ -447,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -612,13 +615,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,37 +629,37 @@
         <v>5</v>
       </c>
       <c r="B16" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5">
-        <v>342</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
-        <v>14</v>
-      </c>
       <c r="C17" s="5">
-        <v>25</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
-        <v>47</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5">
         <v>14</v>
@@ -667,7 +670,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -678,65 +681,113 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B27" s="5">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5">
         <v>9</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C28" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
